--- a/Gomez Marcos - Escenario de Perdida.xlsx
+++ b/Gomez Marcos - Escenario de Perdida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="714" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mercado Meta" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="184">
   <si>
     <t>Costos Fijos</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Costos Variables Año 3</t>
   </si>
   <si>
-    <t>Ingreso Promedio por Evento</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -517,12 +514,6 @@
     <t>Responsable Promoción y Penetración.</t>
   </si>
   <si>
-    <t>Año 2. Se suman 3 recursos</t>
-  </si>
-  <si>
-    <t>Año 3. Se suman 2 recursos</t>
-  </si>
-  <si>
     <t>Gerente Técnica</t>
   </si>
   <si>
@@ -569,6 +560,24 @@
   </si>
   <si>
     <t>Costo Desarrollo SGPT</t>
+  </si>
+  <si>
+    <t>Ingreso por venta</t>
+  </si>
+  <si>
+    <t>Salarios Fijos</t>
+  </si>
+  <si>
+    <t>Salarios Variables</t>
+  </si>
+  <si>
+    <t>Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Año 2. Se suman 3 nuevos recursos y un nuevo Soporte Tecnico</t>
+  </si>
+  <si>
+    <t>Año 3. Se suman 2 recursos, y otro Soporte Tecnico</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1364,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1807,6 +1816,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda 2" xfId="2"/>
@@ -2058,8 +2079,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="109633024"/>
-        <c:axId val="157188672"/>
+        <c:axId val="92282368"/>
+        <c:axId val="138199040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2232,11 +2253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109781504"/>
-        <c:axId val="157189248"/>
+        <c:axId val="102219776"/>
+        <c:axId val="138199616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109633024"/>
+        <c:axId val="92282368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2300,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157188672"/>
+        <c:crossAx val="138199040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2287,7 +2308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157188672"/>
+        <c:axId val="138199040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,12 +2359,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109633024"/>
+        <c:crossAx val="92282368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157189248"/>
+        <c:axId val="138199616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,12 +2401,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109781504"/>
+        <c:crossAx val="102219776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="109781504"/>
+        <c:axId val="102219776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157189248"/>
+        <c:crossAx val="138199616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2775,11 +2796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129032192"/>
-        <c:axId val="157191552"/>
+        <c:axId val="104572928"/>
+        <c:axId val="138201920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129032192"/>
+        <c:axId val="104572928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +2859,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157191552"/>
+        <c:crossAx val="138201920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +2867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157191552"/>
+        <c:axId val="138201920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,7 +2926,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129032192"/>
+        <c:crossAx val="104572928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3353,11 +3374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142084608"/>
-        <c:axId val="157194432"/>
+        <c:axId val="104573952"/>
+        <c:axId val="138204224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142084608"/>
+        <c:axId val="104573952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,7 +3437,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157194432"/>
+        <c:crossAx val="138204224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3424,7 +3445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157194432"/>
+        <c:axId val="138204224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3504,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142084608"/>
+        <c:crossAx val="104573952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3931,11 +3952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157020160"/>
-        <c:axId val="157722880"/>
+        <c:axId val="110153216"/>
+        <c:axId val="138206528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157020160"/>
+        <c:axId val="110153216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +4015,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157722880"/>
+        <c:crossAx val="138206528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4002,7 +4023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157722880"/>
+        <c:axId val="138206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4061,7 +4082,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157020160"/>
+        <c:crossAx val="110153216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4809,11 +4830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109630464"/>
-        <c:axId val="156770880"/>
+        <c:axId val="102220800"/>
+        <c:axId val="140003008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109630464"/>
+        <c:axId val="102220800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4898,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156770880"/>
+        <c:crossAx val="140003008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4885,7 +4906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156770880"/>
+        <c:axId val="140003008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4944,7 +4965,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109630464"/>
+        <c:crossAx val="102220800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4958,6 +4979,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8735,7 +8757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8746,7 +8768,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8774,7 +8796,7 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="24">
         <v>100</v>
@@ -8788,7 +8810,7 @@
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="75">
         <f>E16*B5</f>
@@ -8805,23 +8827,23 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="D11" s="23" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8841,7 +8863,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C35"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8887,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8911,7 +8933,7 @@
       </c>
       <c r="H3" s="48">
         <f>G3/$G$7</f>
-        <v>0.60240963855421692</v>
+        <v>0.19011406844106463</v>
       </c>
       <c r="I3" s="44"/>
     </row>
@@ -8936,7 +8958,7 @@
       </c>
       <c r="H4" s="48">
         <f t="shared" ref="H4:H5" si="0">G4/$G$7</f>
-        <v>0.18072289156626506</v>
+        <v>5.7034220532319393E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8960,7 +8982,7 @@
       </c>
       <c r="H5" s="48">
         <f t="shared" si="0"/>
-        <v>0.21686746987951808</v>
+        <v>6.8441064638783272E-2</v>
       </c>
       <c r="I5" s="30"/>
     </row>
@@ -8974,9 +8996,18 @@
       <c r="C6" s="9">
         <v>1300</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>18000</v>
+      </c>
+      <c r="H6" s="207">
+        <v>7.7000000000000002E-3</v>
+      </c>
       <c r="I6" s="30"/>
       <c r="J6" s="25"/>
     </row>
@@ -8996,7 +9027,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="13">
         <f>SUM(G3:G6)</f>
-        <v>8300</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9015,18 +9046,18 @@
       </c>
       <c r="G8" s="13">
         <f>G7*12</f>
-        <v>99600</v>
+        <v>315600</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="12">
-        <f>Recursos!D94</f>
+        <f>Recursos!D102</f>
         <v>130000</v>
       </c>
     </row>
@@ -9065,7 +9096,7 @@
       <c r="F13" s="171"/>
       <c r="G13" s="172"/>
       <c r="H13" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9168,9 +9199,16 @@
       <c r="C18" s="9">
         <v>1300</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
+        <f>G6*2</f>
+        <v>36000</v>
+      </c>
       <c r="H18" s="46"/>
       <c r="I18" s="30"/>
     </row>
@@ -9190,7 +9228,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="13">
         <f>(G7*H14)+G7</f>
-        <v>16600</v>
+        <v>52600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9209,18 +9247,18 @@
       </c>
       <c r="G20" s="13">
         <f>G19*12</f>
-        <v>199200</v>
+        <v>631200</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="12">
-        <f>Recursos!E94</f>
+        <f>Recursos!E102</f>
         <v>224250</v>
       </c>
     </row>
@@ -9257,7 +9295,7 @@
       <c r="F25" s="171"/>
       <c r="G25" s="172"/>
       <c r="H25" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -9360,9 +9398,16 @@
       <c r="C30" s="9">
         <v>1300</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="9">
+        <f>G6*3</f>
+        <v>54000</v>
+      </c>
       <c r="H30" s="46"/>
       <c r="I30" s="30"/>
     </row>
@@ -9382,7 +9427,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="13">
         <f>(G19*H26)+G19</f>
-        <v>32619</v>
+        <v>103359</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9401,18 +9446,18 @@
       </c>
       <c r="G32" s="13">
         <f>G31*12</f>
-        <v>391428</v>
+        <v>1240308</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="12">
-        <f>+Recursos!F94</f>
+        <f>+Recursos!F102</f>
         <v>292500</v>
       </c>
     </row>
@@ -9500,7 +9545,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="133" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="79">
         <f>'Mercado Meta'!B5/12</f>
@@ -9641,7 +9686,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="133" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C8" s="82">
         <f>'Mercado Meta'!B5</f>
@@ -9700,10 +9745,10 @@
       <c r="H10" s="103"/>
       <c r="I10" s="86"/>
       <c r="K10" s="142" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L10" s="144" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9727,7 +9772,7 @@
       </c>
       <c r="I11" s="96"/>
       <c r="K11" s="143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="15">
         <v>12000</v>
@@ -10542,7 +10587,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10624,7 +10669,7 @@
         <v>600</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H8" s="37">
         <v>12000</v>
@@ -10724,13 +10769,13 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>26</v>
@@ -11202,8 +11247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="A22:B24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11231,23 +11276,23 @@
       <c r="A2" s="52"/>
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="153"/>
       <c r="H2" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11284,19 +11329,19 @@
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="G4" s="156" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" s="157">
         <f>C15*-1</f>
-        <v>-289527.61249999999</v>
+        <v>0</v>
       </c>
       <c r="I4" s="157">
         <f t="shared" ref="I4:J4" si="0">D15*-1</f>
-        <v>-29127.612499999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="157">
         <f t="shared" si="0"/>
-        <v>414816.58749999997</v>
+        <v>117708.58749999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -11357,25 +11402,25 @@
       </c>
       <c r="C8" s="62">
         <f>-Costos!G8</f>
-        <v>-99600</v>
+        <v>-315600</v>
       </c>
       <c r="D8" s="62">
         <f>-Costos!G20</f>
-        <v>-199200</v>
+        <v>-631200</v>
       </c>
       <c r="E8" s="62">
         <f>-Costos!G32</f>
-        <v>-391428</v>
+        <v>-1240308</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -11426,7 +11471,7 @@
         <v>-145621.75</v>
       </c>
       <c r="G10" s="156" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H10" s="157">
         <f>C5*0.03</f>
@@ -11449,15 +11494,15 @@
       </c>
       <c r="C11" s="64">
         <f>SUM(C8:C10)</f>
-        <v>-2027221.75</v>
+        <v>-2243221.75</v>
       </c>
       <c r="D11" s="64">
         <f>SUM(D8:D10)</f>
-        <v>-2483221.75</v>
+        <v>-2915221.75</v>
       </c>
       <c r="E11" s="64">
         <f>SUM(E8:E10)</f>
-        <v>-3530809.75</v>
+        <v>-4379689.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11476,16 +11521,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="66">
-        <f>+C6+C11</f>
-        <v>-827221.75</v>
+        <f>C6+C11</f>
+        <v>-1043221.75</v>
       </c>
       <c r="D13" s="66">
         <f>+D6+D11</f>
-        <v>-83221.75</v>
+        <v>-515221.75</v>
       </c>
       <c r="E13" s="66">
         <f>+E6+E11</f>
-        <v>1185190.25</v>
+        <v>336310.25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -11501,16 +11546,16 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="67">
-        <f>-C13*0.35</f>
-        <v>289527.61249999999</v>
+        <f>-IF(C13&gt;0,C13*0.35,0)</f>
+        <v>0</v>
       </c>
       <c r="D15" s="67">
-        <f>-D13*0.35</f>
-        <v>29127.612499999999</v>
+        <f>-IF(D13&gt;0,D13*0.35,0)</f>
+        <v>0</v>
       </c>
       <c r="E15" s="67">
-        <f>-E13*0.35</f>
-        <v>-414816.58749999997</v>
+        <f>-IF(E13&gt;0,E13*0.35,0)</f>
+        <v>-117708.58749999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11520,32 +11565,32 @@
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
     </row>
-    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="68">
         <f>C15+C13</f>
-        <v>-537694.13749999995</v>
+        <v>-1043221.75</v>
       </c>
       <c r="D17" s="68">
         <f>D15+D13</f>
-        <v>-54094.137499999997</v>
+        <v>-515221.75</v>
       </c>
       <c r="E17" s="68">
         <f>E15+E13</f>
-        <v>770373.66250000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+        <v>218601.66250000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="55" t="s">
         <v>85</v>
       </c>
@@ -11563,7 +11608,7 @@
         <v>145621.75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>84</v>
       </c>
@@ -11573,25 +11618,25 @@
       </c>
       <c r="C20" s="68">
         <f>SUM(C17:C19)</f>
-        <v>-392072.38749999995</v>
+        <v>-897600</v>
       </c>
       <c r="D20" s="68">
         <f>SUM(D17:D19)</f>
-        <v>91527.612500000003</v>
+        <v>-369600</v>
       </c>
       <c r="E20" s="68">
         <f>SUM(E17:E19)</f>
-        <v>915995.41250000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>364223.41249999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="164" t="s">
         <v>83</v>
       </c>
@@ -11602,22 +11647,32 @@
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="165" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="168">
         <f>NPV(B22,C20,D20,E20)+B20</f>
-        <v>-297598.73134106019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-1378074.118820224</v>
+      </c>
+      <c r="H23" s="28">
+        <v>100</v>
+      </c>
+      <c r="I23" s="28">
+        <v>500</v>
+      </c>
+      <c r="J23" s="28">
+        <f>IF(H23-I23&gt;=0,H23-I23,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="166" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="169">
         <f>IRR(B20:E20,30)</f>
-        <v>1.5172959657832497E-2</v>
+        <v>-0.5745619967731932</v>
       </c>
       <c r="G24" s="29"/>
     </row>
@@ -11649,49 +11704,49 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="148" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" s="148" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="147" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="147" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="189" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="190"/>
       <c r="J4" s="191"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="192"/>
       <c r="C5" s="193"/>
       <c r="D5" s="194"/>
       <c r="F5" s="147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="39">
         <v>1</v>
@@ -11705,7 +11760,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -11718,7 +11773,7 @@
         <v>36000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="39">
         <v>10</v>
@@ -11738,7 +11793,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -11751,7 +11806,7 @@
         <v>30000</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="39">
         <v>10</v>
@@ -11771,7 +11826,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
@@ -11784,7 +11839,7 @@
         <v>16000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="39">
         <v>10</v>
@@ -11804,7 +11859,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
@@ -11817,7 +11872,7 @@
         <v>45000</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="39">
         <v>10</v>
@@ -11837,16 +11892,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="195"/>
       <c r="C10" s="196"/>
       <c r="D10" s="197"/>
       <c r="F10" s="149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="198"/>
       <c r="I10" s="199"/>
@@ -11854,7 +11909,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -11867,7 +11922,7 @@
         <v>150000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="39">
         <v>3</v>
@@ -11887,7 +11942,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -11900,7 +11955,7 @@
         <v>5000</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="39">
         <v>3</v>
@@ -11920,16 +11975,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="195"/>
       <c r="C13" s="196"/>
       <c r="D13" s="197"/>
       <c r="F13" s="149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="198"/>
       <c r="I13" s="199"/>
@@ -11937,7 +11992,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -11950,7 +12005,7 @@
         <v>31760</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="39">
         <v>3</v>
@@ -11970,7 +12025,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -11983,7 +12038,7 @@
         <v>40566</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="39">
         <v>3</v>
@@ -12003,7 +12058,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -12016,7 +12071,7 @@
         <v>14333</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="39">
         <v>3</v>
@@ -12036,16 +12091,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="195"/>
       <c r="C17" s="196"/>
       <c r="D17" s="197"/>
       <c r="F17" s="149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="198"/>
       <c r="I17" s="199"/>
@@ -12053,7 +12108,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -12067,7 +12122,7 @@
         <v>209475</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="39">
         <v>4</v>
@@ -12087,7 +12142,7 @@
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="188" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="188"/>
       <c r="C19" s="188"/>
@@ -12152,33 +12207,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="D3" s="149" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" s="149" t="s">
-        <v>134</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="14">
         <v>20</v>
@@ -12190,22 +12245,22 @@
         <v>285</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="36">
         <f>D4*C4</f>
         <v>14250</v>
       </c>
       <c r="H4" s="149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I4" s="149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14">
         <v>20</v>
@@ -12217,14 +12272,14 @@
         <v>285</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="36">
         <f t="shared" ref="F5:F14" si="0">D5*C5</f>
         <v>14250</v>
       </c>
       <c r="H5" s="149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="36">
         <v>285</v>
@@ -12232,7 +12287,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14">
         <v>20</v>
@@ -12244,14 +12299,14 @@
         <v>285</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
       <c r="H6" s="149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="36">
         <v>270</v>
@@ -12259,7 +12314,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="14">
         <v>15</v>
@@ -12271,14 +12326,14 @@
         <v>285</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
       <c r="H7" s="149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="36">
         <v>300</v>
@@ -12286,7 +12341,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="14">
         <v>18</v>
@@ -12298,7 +12353,7 @@
         <v>285</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="0"/>
@@ -12307,25 +12362,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="D9" s="149" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="149" t="s">
-        <v>134</v>
       </c>
       <c r="E9" s="120"/>
       <c r="F9" s="149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -12337,7 +12392,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="0"/>
@@ -12346,7 +12401,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="14">
         <v>18</v>
@@ -12358,7 +12413,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="0"/>
@@ -12367,7 +12422,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="14">
         <v>18</v>
@@ -12379,7 +12434,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="0"/>
@@ -12388,7 +12443,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="14">
         <v>50</v>
@@ -12400,7 +12455,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="0"/>
@@ -12409,7 +12464,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="14">
         <v>5</v>
@@ -12421,7 +12476,7 @@
         <v>270</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="0"/>
@@ -12452,10 +12507,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O94"/>
+  <dimension ref="A3:O102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12505,12 +12560,12 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="160" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="145"/>
       <c r="C5" s="145"/>
       <c r="D5" s="202" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="202"/>
       <c r="F5" s="202"/>
@@ -12526,7 +12581,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="87">
         <v>1</v>
@@ -12568,7 +12623,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
       <c r="B7" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="107">
         <f>SUM(D7:O8)</f>
@@ -12613,7 +12668,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
@@ -12638,7 +12693,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="104">
         <v>0.17</v>
@@ -12698,7 +12753,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="104">
         <v>0.06</v>
@@ -12758,7 +12813,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="108">
         <f>D7-D9-D10</f>
@@ -12811,12 +12866,12 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="160" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
       <c r="D15" s="202" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="202"/>
       <c r="F15" s="202"/>
@@ -12834,7 +12889,7 @@
       <c r="A16" s="145"/>
       <c r="B16" s="145"/>
       <c r="C16" s="145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="146">
         <v>1</v>
@@ -12876,7 +12931,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
       <c r="B17" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="107">
         <f>SUM(D17:O18)</f>
@@ -12921,7 +12976,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
@@ -12946,7 +13001,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="104">
         <v>0.17</v>
@@ -13006,7 +13061,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="104">
         <v>0.06</v>
@@ -13066,7 +13121,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="108">
         <f>D17-D19-D20</f>
@@ -13119,12 +13174,12 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="160" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="202" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="202"/>
       <c r="F24" s="202"/>
@@ -13142,7 +13197,7 @@
       <c r="A25" s="145"/>
       <c r="B25" s="145"/>
       <c r="C25" s="145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="146">
         <v>1</v>
@@ -13184,7 +13239,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="87"/>
       <c r="B26" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="107">
         <f>SUM(D26:O27)</f>
@@ -13229,7 +13284,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="87"/>
       <c r="C27" s="87"/>
@@ -13254,7 +13309,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="104">
         <v>0.17</v>
@@ -13314,7 +13369,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="104">
         <v>0.06</v>
@@ -13374,7 +13429,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="108">
         <f>D26-D28-D29</f>
@@ -13425,1668 +13480,1992 @@
         <v>46200</v>
       </c>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="145"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="209"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="210"/>
+    </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
+      <c r="C34" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="87">
+        <v>1</v>
+      </c>
+      <c r="E34" s="87">
+        <v>2</v>
+      </c>
+      <c r="F34" s="87">
+        <v>3</v>
+      </c>
+      <c r="G34" s="87">
+        <v>4</v>
+      </c>
+      <c r="H34" s="87">
+        <v>5</v>
+      </c>
+      <c r="I34" s="87">
+        <v>6</v>
+      </c>
+      <c r="J34" s="87">
+        <v>7</v>
+      </c>
+      <c r="K34" s="87">
+        <v>8</v>
+      </c>
+      <c r="L34" s="87">
+        <v>9</v>
+      </c>
+      <c r="M34" s="87">
+        <v>10</v>
+      </c>
+      <c r="N34" s="87">
+        <v>11</v>
+      </c>
+      <c r="O34" s="87">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="107">
+        <f>SUM(D35:O36)</f>
+        <v>234000</v>
+      </c>
+      <c r="D35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="F35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="G35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="H35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="I35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="J35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="K35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="L35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="M35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="N35" s="92">
+        <v>18000</v>
+      </c>
+      <c r="O35" s="92">
+        <v>18000</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="160"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="202" t="s">
+      <c r="A36" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="92">
+        <f>I35/2</f>
+        <v>9000</v>
+      </c>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="92">
+        <f>O35/2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="104">
+        <v>0.17</v>
+      </c>
+      <c r="C37" s="92">
+        <f t="shared" ref="C37:H37" si="19">C35*$B$9</f>
+        <v>39780</v>
+      </c>
+      <c r="D37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="E37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="F37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="G37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="H37" s="92">
+        <f t="shared" si="19"/>
+        <v>3060</v>
+      </c>
+      <c r="I37" s="92">
+        <f>(I35+I36)*$B$9</f>
+        <v>4590</v>
+      </c>
+      <c r="J37" s="92">
+        <f>J35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="K37" s="92">
+        <f>K35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="L37" s="92">
+        <f>L35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="M37" s="92">
+        <f>M35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="N37" s="92">
+        <f>N35*$B$9</f>
+        <v>3060</v>
+      </c>
+      <c r="O37" s="92">
+        <f>(O35+O36)*$B$9</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C38" s="92">
+        <f t="shared" ref="C38:H38" si="20">C35*$B$10</f>
+        <v>14040</v>
+      </c>
+      <c r="D38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="E38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="F38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="G38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="H38" s="92">
+        <f t="shared" si="20"/>
+        <v>1080</v>
+      </c>
+      <c r="I38" s="92">
+        <f>(I35+I36)*$B$10</f>
+        <v>1620</v>
+      </c>
+      <c r="J38" s="92">
+        <f>J35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="K38" s="92">
+        <f>K35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="L38" s="92">
+        <f>L35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="M38" s="92">
+        <f>M35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="N38" s="92">
+        <f>N35*$B$10</f>
+        <v>1080</v>
+      </c>
+      <c r="O38" s="92">
+        <f>(O35+O36)*$B$10</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="108">
+        <f>D35-D37-D38</f>
+        <v>13860</v>
+      </c>
+      <c r="E39" s="108">
+        <f t="shared" ref="E39:H39" si="21">E35-E37-E38</f>
+        <v>13860</v>
+      </c>
+      <c r="F39" s="108">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="G39" s="108">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="H39" s="108">
+        <f t="shared" si="21"/>
+        <v>13860</v>
+      </c>
+      <c r="I39" s="108">
+        <f>I35+I36-I37-I38</f>
+        <v>20790</v>
+      </c>
+      <c r="J39" s="108">
+        <f t="shared" ref="J39:N39" si="22">J35-J37-J38</f>
+        <v>13860</v>
+      </c>
+      <c r="K39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="L39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="M39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="N39" s="108">
+        <f t="shared" si="22"/>
+        <v>13860</v>
+      </c>
+      <c r="O39" s="108">
+        <f>O35+O36-O37-O38</f>
+        <v>20790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="145"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="160"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="202"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="202"/>
+      <c r="N44" s="202"/>
+      <c r="O44" s="202"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="87">
+        <v>1</v>
+      </c>
+      <c r="E45" s="87">
+        <v>2</v>
+      </c>
+      <c r="F45" s="87">
+        <v>3</v>
+      </c>
+      <c r="G45" s="87">
+        <v>4</v>
+      </c>
+      <c r="H45" s="87">
+        <v>5</v>
+      </c>
+      <c r="I45" s="87">
+        <v>6</v>
+      </c>
+      <c r="J45" s="87">
+        <v>7</v>
+      </c>
+      <c r="K45" s="87">
+        <v>8</v>
+      </c>
+      <c r="L45" s="87">
+        <v>9</v>
+      </c>
+      <c r="M45" s="87">
+        <v>10</v>
+      </c>
+      <c r="N45" s="87">
+        <v>11</v>
+      </c>
+      <c r="O45" s="87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="202"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="87">
-        <v>1</v>
-      </c>
-      <c r="E37" s="87">
-        <v>2</v>
-      </c>
-      <c r="F37" s="87">
-        <v>3</v>
-      </c>
-      <c r="G37" s="87">
-        <v>4</v>
-      </c>
-      <c r="H37" s="87">
-        <v>5</v>
-      </c>
-      <c r="I37" s="87">
-        <v>6</v>
-      </c>
-      <c r="J37" s="87">
-        <v>7</v>
-      </c>
-      <c r="K37" s="87">
-        <v>8</v>
-      </c>
-      <c r="L37" s="87">
-        <v>9</v>
-      </c>
-      <c r="M37" s="87">
-        <v>10</v>
-      </c>
-      <c r="N37" s="87">
-        <v>11</v>
-      </c>
-      <c r="O37" s="87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="107">
-        <f>SUM(D38:O39)</f>
+      <c r="C46" s="107">
+        <f>SUM(D46:O47)</f>
         <v>364000</v>
       </c>
-      <c r="D38" s="92">
+      <c r="D46" s="92">
         <v>28000</v>
       </c>
-      <c r="E38" s="92">
+      <c r="E46" s="92">
         <v>28000</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F46" s="92">
         <v>28000</v>
       </c>
-      <c r="G38" s="92">
+      <c r="G46" s="92">
         <v>28000</v>
       </c>
-      <c r="H38" s="92">
+      <c r="H46" s="92">
         <v>28000</v>
       </c>
-      <c r="I38" s="92">
+      <c r="I46" s="92">
         <v>28000</v>
       </c>
-      <c r="J38" s="92">
+      <c r="J46" s="92">
         <v>28000</v>
       </c>
-      <c r="K38" s="92">
+      <c r="K46" s="92">
         <v>28000</v>
       </c>
-      <c r="L38" s="92">
+      <c r="L46" s="92">
         <v>28000</v>
       </c>
-      <c r="M38" s="92">
+      <c r="M46" s="92">
         <v>28000</v>
       </c>
-      <c r="N38" s="92">
+      <c r="N46" s="92">
         <v>28000</v>
       </c>
-      <c r="O38" s="92">
+      <c r="O46" s="92">
         <v>28000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="87" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="92">
+        <f>I46/2</f>
+        <v>14000</v>
+      </c>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="92">
+        <f>O46/2</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="92">
-        <f>I38/2</f>
-        <v>14000</v>
-      </c>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="92">
-        <f>O38/2</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="104">
+      <c r="B48" s="104">
         <v>0.17</v>
       </c>
-      <c r="C40" s="92">
-        <f t="shared" ref="C40:H40" si="19">C38*$B$9</f>
+      <c r="C48" s="92">
+        <f t="shared" ref="C48:H48" si="23">C46*$B$9</f>
         <v>61880.000000000007</v>
       </c>
-      <c r="D40" s="92">
-        <f t="shared" si="19"/>
+      <c r="D48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="E40" s="92">
-        <f t="shared" si="19"/>
+      <c r="E48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="F40" s="92">
-        <f t="shared" si="19"/>
+      <c r="F48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="G40" s="92">
-        <f t="shared" si="19"/>
+      <c r="G48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="H40" s="92">
-        <f t="shared" si="19"/>
+      <c r="H48" s="92">
+        <f t="shared" si="23"/>
         <v>4760</v>
       </c>
-      <c r="I40" s="92">
-        <f>(I38+I39)*$B$9</f>
+      <c r="I48" s="92">
+        <f>(I46+I47)*$B$9</f>
         <v>7140.0000000000009</v>
       </c>
-      <c r="J40" s="92">
-        <f>J38*$B$9</f>
+      <c r="J48" s="92">
+        <f>J46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="K40" s="92">
-        <f>K38*$B$9</f>
+      <c r="K48" s="92">
+        <f>K46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="L40" s="92">
-        <f>L38*$B$9</f>
+      <c r="L48" s="92">
+        <f>L46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="M40" s="92">
-        <f>M38*$B$9</f>
+      <c r="M48" s="92">
+        <f>M46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="N40" s="92">
-        <f>N38*$B$9</f>
+      <c r="N48" s="92">
+        <f>N46*$B$9</f>
         <v>4760</v>
       </c>
-      <c r="O40" s="92">
-        <f>(O38+O39)*$B$9</f>
+      <c r="O48" s="92">
+        <f>(O46+O47)*$B$9</f>
         <v>7140.0000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C41" s="92">
-        <f t="shared" ref="C41:H41" si="20">C38*$B$10</f>
-        <v>21840</v>
-      </c>
-      <c r="D41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="E41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="F41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="G41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="H41" s="92">
-        <f t="shared" si="20"/>
-        <v>1680</v>
-      </c>
-      <c r="I41" s="92">
-        <f>(I38+I39)*$B$10</f>
-        <v>2520</v>
-      </c>
-      <c r="J41" s="92">
-        <f>J38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="K41" s="92">
-        <f>K38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="L41" s="92">
-        <f>L38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="M41" s="92">
-        <f>M38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="N41" s="92">
-        <f>N38*$B$10</f>
-        <v>1680</v>
-      </c>
-      <c r="O41" s="92">
-        <f>(O38+O39)*$B$10</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C42" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="108">
-        <f>D38-D40-D41</f>
-        <v>21560</v>
-      </c>
-      <c r="E42" s="108">
-        <f t="shared" ref="E42" si="21">E38-E40-E41</f>
-        <v>21560</v>
-      </c>
-      <c r="F42" s="108">
-        <f t="shared" ref="F42" si="22">F38-F40-F41</f>
-        <v>21560</v>
-      </c>
-      <c r="G42" s="108">
-        <f t="shared" ref="G42" si="23">G38-G40-G41</f>
-        <v>21560</v>
-      </c>
-      <c r="H42" s="108">
-        <f t="shared" ref="H42" si="24">H38-H40-H41</f>
-        <v>21560</v>
-      </c>
-      <c r="I42" s="108">
-        <f>I38+I39-I40-I41</f>
-        <v>32340</v>
-      </c>
-      <c r="J42" s="108">
-        <f t="shared" ref="J42:N42" si="25">J38-J40-J41</f>
-        <v>21560</v>
-      </c>
-      <c r="K42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="L42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="M42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="N42" s="108">
-        <f t="shared" si="25"/>
-        <v>21560</v>
-      </c>
-      <c r="O42" s="108">
-        <f>O38+O39-O40-O41</f>
-        <v>32340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="202"/>
-      <c r="K46" s="202"/>
-      <c r="L46" s="202"/>
-      <c r="M46" s="202"/>
-      <c r="N46" s="202"/>
-      <c r="O46" s="202"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="145"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="146">
-        <v>1</v>
-      </c>
-      <c r="E47" s="146">
-        <v>2</v>
-      </c>
-      <c r="F47" s="146">
-        <v>3</v>
-      </c>
-      <c r="G47" s="146">
-        <v>4</v>
-      </c>
-      <c r="H47" s="146">
-        <v>5</v>
-      </c>
-      <c r="I47" s="146">
-        <v>6</v>
-      </c>
-      <c r="J47" s="146">
-        <v>7</v>
-      </c>
-      <c r="K47" s="146">
-        <v>8</v>
-      </c>
-      <c r="L47" s="146">
-        <v>9</v>
-      </c>
-      <c r="M47" s="146">
-        <v>10</v>
-      </c>
-      <c r="N47" s="146">
-        <v>11</v>
-      </c>
-      <c r="O47" s="146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="107">
-        <f>SUM(D48:O49)</f>
-        <v>390000</v>
-      </c>
-      <c r="D48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="E48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="F48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="G48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="H48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="I48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="J48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="K48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="L48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="M48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="N48" s="92">
-        <v>30000</v>
-      </c>
-      <c r="O48" s="92">
-        <v>30000</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C49" s="92">
+        <f t="shared" ref="C49:H49" si="24">C46*$B$10</f>
+        <v>21840</v>
+      </c>
+      <c r="D49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="E49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="F49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="G49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="H49" s="92">
+        <f t="shared" si="24"/>
+        <v>1680</v>
+      </c>
+      <c r="I49" s="92">
+        <f>(I46+I47)*$B$10</f>
+        <v>2520</v>
+      </c>
+      <c r="J49" s="92">
+        <f>J46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="K49" s="92">
+        <f>K46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="L49" s="92">
+        <f>L46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="M49" s="92">
+        <f>M46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="N49" s="92">
+        <f>N46*$B$10</f>
+        <v>1680</v>
+      </c>
+      <c r="O49" s="92">
+        <f>(O46+O47)*$B$10</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C50" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="108">
+        <f>D46-D48-D49</f>
+        <v>21560</v>
+      </c>
+      <c r="E50" s="108">
+        <f t="shared" ref="E50" si="25">E46-E48-E49</f>
+        <v>21560</v>
+      </c>
+      <c r="F50" s="108">
+        <f t="shared" ref="F50" si="26">F46-F48-F49</f>
+        <v>21560</v>
+      </c>
+      <c r="G50" s="108">
+        <f t="shared" ref="G50" si="27">G46-G48-G49</f>
+        <v>21560</v>
+      </c>
+      <c r="H50" s="108">
+        <f t="shared" ref="H50" si="28">H46-H48-H49</f>
+        <v>21560</v>
+      </c>
+      <c r="I50" s="108">
+        <f>I46+I47-I48-I49</f>
+        <v>32340</v>
+      </c>
+      <c r="J50" s="108">
+        <f t="shared" ref="J50:N50" si="29">J46-J48-J49</f>
+        <v>21560</v>
+      </c>
+      <c r="K50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="L50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="M50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="N50" s="108">
+        <f t="shared" si="29"/>
+        <v>21560</v>
+      </c>
+      <c r="O50" s="108">
+        <f>O46+O47-O48-O49</f>
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="202"/>
+      <c r="O54" s="202"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="145"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="146">
+        <v>1</v>
+      </c>
+      <c r="E55" s="146">
+        <v>2</v>
+      </c>
+      <c r="F55" s="146">
+        <v>3</v>
+      </c>
+      <c r="G55" s="146">
+        <v>4</v>
+      </c>
+      <c r="H55" s="146">
+        <v>5</v>
+      </c>
+      <c r="I55" s="146">
+        <v>6</v>
+      </c>
+      <c r="J55" s="146">
+        <v>7</v>
+      </c>
+      <c r="K55" s="146">
+        <v>8</v>
+      </c>
+      <c r="L55" s="146">
+        <v>9</v>
+      </c>
+      <c r="M55" s="146">
+        <v>10</v>
+      </c>
+      <c r="N55" s="146">
+        <v>11</v>
+      </c>
+      <c r="O55" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
+      <c r="B56" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="107">
+        <f>SUM(D56:O57)</f>
+        <v>390000</v>
+      </c>
+      <c r="D56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="E56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="F56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="G56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="H56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="I56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="J56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="K56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="L56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="M56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="N56" s="92">
+        <v>30000</v>
+      </c>
+      <c r="O56" s="92">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="92">
+        <f>I56/2</f>
+        <v>15000</v>
+      </c>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="92">
+        <f>O56/2</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="92">
-        <f>I48/2</f>
-        <v>15000</v>
-      </c>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="92">
-        <f>O48/2</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="104">
+      <c r="B58" s="104">
         <v>0.17</v>
       </c>
-      <c r="C50" s="92">
-        <f t="shared" ref="C50:H50" si="26">C48*$B$9</f>
+      <c r="C58" s="92">
+        <f t="shared" ref="C58:H58" si="30">C56*$B$9</f>
         <v>66300</v>
       </c>
-      <c r="D50" s="92">
-        <f t="shared" si="26"/>
+      <c r="D58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="E50" s="92">
-        <f t="shared" si="26"/>
+      <c r="E58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="F50" s="92">
-        <f t="shared" si="26"/>
+      <c r="F58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="G50" s="92">
-        <f t="shared" si="26"/>
+      <c r="G58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="H50" s="92">
-        <f t="shared" si="26"/>
+      <c r="H58" s="92">
+        <f t="shared" si="30"/>
         <v>5100</v>
       </c>
-      <c r="I50" s="92">
-        <f>(I48+I49)*$B$9</f>
+      <c r="I58" s="92">
+        <f>(I56+I57)*$B$9</f>
         <v>7650.0000000000009</v>
       </c>
-      <c r="J50" s="92">
-        <f>J48*$B$9</f>
+      <c r="J58" s="92">
+        <f>J56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="K50" s="92">
-        <f>K48*$B$9</f>
+      <c r="K58" s="92">
+        <f>K56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="L50" s="92">
-        <f>L48*$B$9</f>
+      <c r="L58" s="92">
+        <f>L56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="M50" s="92">
-        <f>M48*$B$9</f>
+      <c r="M58" s="92">
+        <f>M56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="N50" s="92">
-        <f>N48*$B$9</f>
+      <c r="N58" s="92">
+        <f>N56*$B$9</f>
         <v>5100</v>
       </c>
-      <c r="O50" s="92">
-        <f>(O48+O49)*$B$9</f>
+      <c r="O58" s="92">
+        <f>(O56+O57)*$B$9</f>
         <v>7650.0000000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C51" s="92">
-        <f t="shared" ref="C51:H51" si="27">C48*$B$10</f>
-        <v>23400</v>
-      </c>
-      <c r="D51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="E51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="F51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="G51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="H51" s="92">
-        <f t="shared" si="27"/>
-        <v>1800</v>
-      </c>
-      <c r="I51" s="92">
-        <f>(I48+I49)*$B$10</f>
-        <v>2700</v>
-      </c>
-      <c r="J51" s="92">
-        <f>J48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="K51" s="92">
-        <f>K48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="L51" s="92">
-        <f>L48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="M51" s="92">
-        <f>M48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="N51" s="92">
-        <f>N48*$B$10</f>
-        <v>1800</v>
-      </c>
-      <c r="O51" s="92">
-        <f>(O48+O49)*$B$10</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C52" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="108">
-        <f>D48-D50-D51</f>
-        <v>23100</v>
-      </c>
-      <c r="E52" s="108">
-        <f t="shared" ref="E52" si="28">E48-E50-E51</f>
-        <v>23100</v>
-      </c>
-      <c r="F52" s="108">
-        <f t="shared" ref="F52" si="29">F48-F50-F51</f>
-        <v>23100</v>
-      </c>
-      <c r="G52" s="108">
-        <f t="shared" ref="G52" si="30">G48-G50-G51</f>
-        <v>23100</v>
-      </c>
-      <c r="H52" s="108">
-        <f t="shared" ref="H52" si="31">H48-H50-H51</f>
-        <v>23100</v>
-      </c>
-      <c r="I52" s="108">
-        <f>I48+I49-I50-I51</f>
-        <v>34650</v>
-      </c>
-      <c r="J52" s="108">
-        <f t="shared" ref="J52:N52" si="32">J48-J50-J51</f>
-        <v>23100</v>
-      </c>
-      <c r="K52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="L52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="M52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="N52" s="108">
-        <f t="shared" si="32"/>
-        <v>23100</v>
-      </c>
-      <c r="O52" s="108">
-        <f>O48+O49-O50-O51</f>
-        <v>34650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="206" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="206"/>
-      <c r="J56" s="206"/>
-      <c r="K56" s="206"/>
-      <c r="L56" s="206"/>
-      <c r="M56" s="206"/>
-      <c r="N56" s="206"/>
-      <c r="O56" s="206"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C57" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="87">
-        <v>1</v>
-      </c>
-      <c r="E57" s="87">
-        <v>2</v>
-      </c>
-      <c r="F57" s="87">
-        <v>3</v>
-      </c>
-      <c r="G57" s="87">
-        <v>4</v>
-      </c>
-      <c r="H57" s="87">
-        <v>5</v>
-      </c>
-      <c r="I57" s="87">
-        <v>6</v>
-      </c>
-      <c r="J57" s="87">
-        <v>7</v>
-      </c>
-      <c r="K57" s="87">
-        <v>8</v>
-      </c>
-      <c r="L57" s="87">
-        <v>9</v>
-      </c>
-      <c r="M57" s="87">
-        <v>10</v>
-      </c>
-      <c r="N57" s="87">
-        <v>11</v>
-      </c>
-      <c r="O57" s="87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="107">
-        <f>SUM(D58:O59)</f>
-        <v>377000</v>
-      </c>
-      <c r="D58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="E58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="F58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="G58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="H58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="I58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="J58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="K58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="L58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="M58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="N58" s="92">
-        <v>29000</v>
-      </c>
-      <c r="O58" s="92">
-        <v>29000</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C59" s="92">
+        <f t="shared" ref="C59:H59" si="31">C56*$B$10</f>
+        <v>23400</v>
+      </c>
+      <c r="D59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="E59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="F59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="G59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="H59" s="92">
+        <f t="shared" si="31"/>
+        <v>1800</v>
+      </c>
+      <c r="I59" s="92">
+        <f>(I56+I57)*$B$10</f>
+        <v>2700</v>
+      </c>
+      <c r="J59" s="92">
+        <f>J56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="K59" s="92">
+        <f>K56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="L59" s="92">
+        <f>L56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="M59" s="92">
+        <f>M56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="N59" s="92">
+        <f>N56*$B$10</f>
+        <v>1800</v>
+      </c>
+      <c r="O59" s="92">
+        <f>(O56+O57)*$B$10</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C60" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="108">
+        <f>D56-D58-D59</f>
+        <v>23100</v>
+      </c>
+      <c r="E60" s="108">
+        <f t="shared" ref="E60" si="32">E56-E58-E59</f>
+        <v>23100</v>
+      </c>
+      <c r="F60" s="108">
+        <f t="shared" ref="F60" si="33">F56-F58-F59</f>
+        <v>23100</v>
+      </c>
+      <c r="G60" s="108">
+        <f t="shared" ref="G60" si="34">G56-G58-G59</f>
+        <v>23100</v>
+      </c>
+      <c r="H60" s="108">
+        <f t="shared" ref="H60" si="35">H56-H58-H59</f>
+        <v>23100</v>
+      </c>
+      <c r="I60" s="108">
+        <f>I56+I57-I58-I59</f>
+        <v>34650</v>
+      </c>
+      <c r="J60" s="108">
+        <f t="shared" ref="J60:N60" si="36">J56-J58-J59</f>
+        <v>23100</v>
+      </c>
+      <c r="K60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="L60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="M60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="N60" s="108">
+        <f t="shared" si="36"/>
+        <v>23100</v>
+      </c>
+      <c r="O60" s="108">
+        <f>O56+O57-O58-O59</f>
+        <v>34650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="206" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="206"/>
+      <c r="F64" s="206"/>
+      <c r="G64" s="206"/>
+      <c r="H64" s="206"/>
+      <c r="I64" s="206"/>
+      <c r="J64" s="206"/>
+      <c r="K64" s="206"/>
+      <c r="L64" s="206"/>
+      <c r="M64" s="206"/>
+      <c r="N64" s="206"/>
+      <c r="O64" s="206"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C65" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="87">
+        <v>1</v>
+      </c>
+      <c r="E65" s="87">
+        <v>2</v>
+      </c>
+      <c r="F65" s="87">
+        <v>3</v>
+      </c>
+      <c r="G65" s="87">
+        <v>4</v>
+      </c>
+      <c r="H65" s="87">
+        <v>5</v>
+      </c>
+      <c r="I65" s="87">
+        <v>6</v>
+      </c>
+      <c r="J65" s="87">
+        <v>7</v>
+      </c>
+      <c r="K65" s="87">
+        <v>8</v>
+      </c>
+      <c r="L65" s="87">
+        <v>9</v>
+      </c>
+      <c r="M65" s="87">
+        <v>10</v>
+      </c>
+      <c r="N65" s="87">
+        <v>11</v>
+      </c>
+      <c r="O65" s="87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="87"/>
+      <c r="B66" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="107">
+        <f>SUM(D66:O67)</f>
+        <v>377000</v>
+      </c>
+      <c r="D66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="E66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="F66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="G66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="H66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="I66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="J66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="K66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="L66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="M66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="N66" s="92">
+        <v>29000</v>
+      </c>
+      <c r="O66" s="92">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="92">
+        <f>I66/2</f>
+        <v>14500</v>
+      </c>
+      <c r="J67" s="87"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="87"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="92">
+        <f>O66/2</f>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="92">
-        <f>I58/2</f>
-        <v>14500</v>
-      </c>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="92">
-        <f>O58/2</f>
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="87" t="s">
+      <c r="B68" s="104">
+        <v>0.17</v>
+      </c>
+      <c r="C68" s="92">
+        <f t="shared" ref="C68:H68" si="37">C66*$B$9</f>
+        <v>64090.000000000007</v>
+      </c>
+      <c r="D68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="E68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="F68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="G68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="H68" s="92">
+        <f t="shared" si="37"/>
+        <v>4930</v>
+      </c>
+      <c r="I68" s="92">
+        <f>(I66+I67)*$B$9</f>
+        <v>7395.0000000000009</v>
+      </c>
+      <c r="J68" s="92">
+        <f>J66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="K68" s="92">
+        <f>K66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="L68" s="92">
+        <f>L66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="M68" s="92">
+        <f>M66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="N68" s="92">
+        <f>N66*$B$9</f>
+        <v>4930</v>
+      </c>
+      <c r="O68" s="92">
+        <f>(O66+O67)*$B$9</f>
+        <v>7395.0000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="104">
+      <c r="B69" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C69" s="92">
+        <f t="shared" ref="C69:H69" si="38">C66*$B$10</f>
+        <v>22620</v>
+      </c>
+      <c r="D69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="E69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="F69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="G69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="H69" s="92">
+        <f t="shared" si="38"/>
+        <v>1740</v>
+      </c>
+      <c r="I69" s="92">
+        <f>(I66+I67)*$B$10</f>
+        <v>2610</v>
+      </c>
+      <c r="J69" s="92">
+        <f>J66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="K69" s="92">
+        <f>K66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="L69" s="92">
+        <f>L66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="M69" s="92">
+        <f>M66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="N69" s="92">
+        <f>N66*$B$10</f>
+        <v>1740</v>
+      </c>
+      <c r="O69" s="92">
+        <f>(O66+O67)*$B$10</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C70" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="108">
+        <f>D66-D68-D69</f>
+        <v>22330</v>
+      </c>
+      <c r="E70" s="108">
+        <f t="shared" ref="E70" si="39">E66-E68-E69</f>
+        <v>22330</v>
+      </c>
+      <c r="F70" s="108">
+        <f t="shared" ref="F70" si="40">F66-F68-F69</f>
+        <v>22330</v>
+      </c>
+      <c r="G70" s="108">
+        <f t="shared" ref="G70" si="41">G66-G68-G69</f>
+        <v>22330</v>
+      </c>
+      <c r="H70" s="108">
+        <f t="shared" ref="H70" si="42">H66-H68-H69</f>
+        <v>22330</v>
+      </c>
+      <c r="I70" s="108">
+        <f>I66+I67-I68-I69</f>
+        <v>33495</v>
+      </c>
+      <c r="J70" s="108">
+        <f t="shared" ref="J70:N70" si="43">J66-J68-J69</f>
+        <v>22330</v>
+      </c>
+      <c r="K70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="L70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="M70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="N70" s="108">
+        <f t="shared" si="43"/>
+        <v>22330</v>
+      </c>
+      <c r="O70" s="108">
+        <f>O66+O67-O68-O69</f>
+        <v>33495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="161" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="162"/>
+      <c r="F73" s="162"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="162"/>
+      <c r="M73" s="162"/>
+      <c r="N73" s="162"/>
+      <c r="O73" s="162"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="202"/>
+      <c r="F76" s="202"/>
+      <c r="G76" s="202"/>
+      <c r="H76" s="202"/>
+      <c r="I76" s="202"/>
+      <c r="J76" s="202"/>
+      <c r="K76" s="202"/>
+      <c r="L76" s="202"/>
+      <c r="M76" s="202"/>
+      <c r="N76" s="202"/>
+      <c r="O76" s="202"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="145"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="146">
+        <v>1</v>
+      </c>
+      <c r="E77" s="146">
+        <v>2</v>
+      </c>
+      <c r="F77" s="146">
+        <v>3</v>
+      </c>
+      <c r="G77" s="146">
+        <v>4</v>
+      </c>
+      <c r="H77" s="146">
+        <v>5</v>
+      </c>
+      <c r="I77" s="146">
+        <v>6</v>
+      </c>
+      <c r="J77" s="146">
+        <v>7</v>
+      </c>
+      <c r="K77" s="146">
+        <v>8</v>
+      </c>
+      <c r="L77" s="146">
+        <v>9</v>
+      </c>
+      <c r="M77" s="146">
+        <v>10</v>
+      </c>
+      <c r="N77" s="146">
+        <v>11</v>
+      </c>
+      <c r="O77" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="87"/>
+      <c r="B78" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="107">
+        <f>SUM(D78:O79)</f>
+        <v>416000</v>
+      </c>
+      <c r="D78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="E78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="F78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="G78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="H78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="I78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="J78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="K78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="L78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="M78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="N78" s="92">
+        <v>32000</v>
+      </c>
+      <c r="O78" s="92">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="92">
+        <f>I78/2</f>
+        <v>16000</v>
+      </c>
+      <c r="J79" s="87"/>
+      <c r="K79" s="87"/>
+      <c r="L79" s="87"/>
+      <c r="M79" s="87"/>
+      <c r="N79" s="87"/>
+      <c r="O79" s="92">
+        <f>O78/2</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="104">
         <v>0.17</v>
       </c>
-      <c r="C60" s="92">
-        <f t="shared" ref="C60:H60" si="33">C58*$B$9</f>
-        <v>64090.000000000007</v>
-      </c>
-      <c r="D60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="E60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="F60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="G60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="H60" s="92">
-        <f t="shared" si="33"/>
-        <v>4930</v>
-      </c>
-      <c r="I60" s="92">
-        <f>(I58+I59)*$B$9</f>
-        <v>7395.0000000000009</v>
-      </c>
-      <c r="J60" s="92">
-        <f>J58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="K60" s="92">
-        <f>K58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="L60" s="92">
-        <f>L58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="M60" s="92">
-        <f>M58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="N60" s="92">
-        <f>N58*$B$9</f>
-        <v>4930</v>
-      </c>
-      <c r="O60" s="92">
-        <f>(O58+O59)*$B$9</f>
-        <v>7395.0000000000009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C61" s="92">
-        <f t="shared" ref="C61:H61" si="34">C58*$B$10</f>
-        <v>22620</v>
-      </c>
-      <c r="D61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="E61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="F61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="G61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="H61" s="92">
-        <f t="shared" si="34"/>
-        <v>1740</v>
-      </c>
-      <c r="I61" s="92">
-        <f>(I58+I59)*$B$10</f>
-        <v>2610</v>
-      </c>
-      <c r="J61" s="92">
-        <f>J58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="K61" s="92">
-        <f>K58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="L61" s="92">
-        <f>L58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="M61" s="92">
-        <f>M58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="N61" s="92">
-        <f>N58*$B$10</f>
-        <v>1740</v>
-      </c>
-      <c r="O61" s="92">
-        <f>(O58+O59)*$B$10</f>
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C62" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="108">
-        <f>D58-D60-D61</f>
-        <v>22330</v>
-      </c>
-      <c r="E62" s="108">
-        <f t="shared" ref="E62" si="35">E58-E60-E61</f>
-        <v>22330</v>
-      </c>
-      <c r="F62" s="108">
-        <f t="shared" ref="F62" si="36">F58-F60-F61</f>
-        <v>22330</v>
-      </c>
-      <c r="G62" s="108">
-        <f t="shared" ref="G62" si="37">G58-G60-G61</f>
-        <v>22330</v>
-      </c>
-      <c r="H62" s="108">
-        <f t="shared" ref="H62" si="38">H58-H60-H61</f>
-        <v>22330</v>
-      </c>
-      <c r="I62" s="108">
-        <f>I58+I59-I60-I61</f>
-        <v>33495</v>
-      </c>
-      <c r="J62" s="108">
-        <f t="shared" ref="J62:N62" si="39">J58-J60-J61</f>
-        <v>22330</v>
-      </c>
-      <c r="K62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="L62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="M62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="N62" s="108">
-        <f t="shared" si="39"/>
-        <v>22330</v>
-      </c>
-      <c r="O62" s="108">
-        <f>O58+O59-O60-O61</f>
-        <v>33495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="161" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="162"/>
-      <c r="C65" s="162"/>
-      <c r="D65" s="162"/>
-      <c r="E65" s="162"/>
-      <c r="F65" s="162"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="162"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="162"/>
-      <c r="L65" s="162"/>
-      <c r="M65" s="162"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="202"/>
-      <c r="F68" s="202"/>
-      <c r="G68" s="202"/>
-      <c r="H68" s="202"/>
-      <c r="I68" s="202"/>
-      <c r="J68" s="202"/>
-      <c r="K68" s="202"/>
-      <c r="L68" s="202"/>
-      <c r="M68" s="202"/>
-      <c r="N68" s="202"/>
-      <c r="O68" s="202"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="145"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="146">
-        <v>1</v>
-      </c>
-      <c r="E69" s="146">
-        <v>2</v>
-      </c>
-      <c r="F69" s="146">
-        <v>3</v>
-      </c>
-      <c r="G69" s="146">
-        <v>4</v>
-      </c>
-      <c r="H69" s="146">
-        <v>5</v>
-      </c>
-      <c r="I69" s="146">
-        <v>6</v>
-      </c>
-      <c r="J69" s="146">
-        <v>7</v>
-      </c>
-      <c r="K69" s="146">
-        <v>8</v>
-      </c>
-      <c r="L69" s="146">
-        <v>9</v>
-      </c>
-      <c r="M69" s="146">
-        <v>10</v>
-      </c>
-      <c r="N69" s="146">
-        <v>11</v>
-      </c>
-      <c r="O69" s="146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="87"/>
-      <c r="B70" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="107">
-        <f>SUM(D70:O71)</f>
-        <v>416000</v>
-      </c>
-      <c r="D70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="E70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="F70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="G70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="H70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="I70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="J70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="K70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="L70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="M70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="N70" s="92">
-        <v>32000</v>
-      </c>
-      <c r="O70" s="92">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="92">
-        <f>I70/2</f>
-        <v>16000</v>
-      </c>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="92">
-        <f>O70/2</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="104">
-        <v>0.17</v>
-      </c>
-      <c r="C72" s="92">
-        <f t="shared" ref="C72:H72" si="40">C70*$B$9</f>
+      <c r="C80" s="92">
+        <f t="shared" ref="C80:H80" si="44">C78*$B$9</f>
         <v>70720</v>
       </c>
-      <c r="D72" s="92">
-        <f t="shared" si="40"/>
+      <c r="D80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="E72" s="92">
-        <f t="shared" si="40"/>
+      <c r="E80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="F72" s="92">
-        <f t="shared" si="40"/>
+      <c r="F80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="G72" s="92">
-        <f t="shared" si="40"/>
+      <c r="G80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="H72" s="92">
-        <f t="shared" si="40"/>
+      <c r="H80" s="92">
+        <f t="shared" si="44"/>
         <v>5440</v>
       </c>
-      <c r="I72" s="92">
-        <f>(I70+I71)*$B$9</f>
+      <c r="I80" s="92">
+        <f>(I78+I79)*$B$9</f>
         <v>8160.0000000000009</v>
       </c>
-      <c r="J72" s="92">
-        <f>J70*$B$9</f>
+      <c r="J80" s="92">
+        <f>J78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="K72" s="92">
-        <f>K70*$B$9</f>
+      <c r="K80" s="92">
+        <f>K78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="L72" s="92">
-        <f>L70*$B$9</f>
+      <c r="L80" s="92">
+        <f>L78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="M72" s="92">
-        <f>M70*$B$9</f>
+      <c r="M80" s="92">
+        <f>M78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="N72" s="92">
-        <f>N70*$B$9</f>
+      <c r="N80" s="92">
+        <f>N78*$B$9</f>
         <v>5440</v>
       </c>
-      <c r="O72" s="92">
-        <f>(O70+O71)*$B$9</f>
+      <c r="O80" s="92">
+        <f>(O78+O79)*$B$9</f>
         <v>8160.0000000000009</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="104">
-        <v>0.06</v>
-      </c>
-      <c r="C73" s="92">
-        <f t="shared" ref="C73:H73" si="41">C70*$B$10</f>
-        <v>24960</v>
-      </c>
-      <c r="D73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="E73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="F73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="G73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="H73" s="92">
-        <f t="shared" si="41"/>
-        <v>1920</v>
-      </c>
-      <c r="I73" s="92">
-        <f>(I70+I71)*$B$10</f>
-        <v>2880</v>
-      </c>
-      <c r="J73" s="92">
-        <f>J70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="K73" s="92">
-        <f>K70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="L73" s="92">
-        <f>L70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="M73" s="92">
-        <f>M70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="N73" s="92">
-        <f>N70*$B$10</f>
-        <v>1920</v>
-      </c>
-      <c r="O73" s="92">
-        <f>(O70+O71)*$B$10</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C74" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="108">
-        <f>D70-D72-D73</f>
-        <v>24640</v>
-      </c>
-      <c r="E74" s="108">
-        <f t="shared" ref="E74" si="42">E70-E72-E73</f>
-        <v>24640</v>
-      </c>
-      <c r="F74" s="108">
-        <f t="shared" ref="F74" si="43">F70-F72-F73</f>
-        <v>24640</v>
-      </c>
-      <c r="G74" s="108">
-        <f t="shared" ref="G74" si="44">G70-G72-G73</f>
-        <v>24640</v>
-      </c>
-      <c r="H74" s="108">
-        <f t="shared" ref="H74" si="45">H70-H72-H73</f>
-        <v>24640</v>
-      </c>
-      <c r="I74" s="108">
-        <f>I70+I71-I72-I73</f>
-        <v>36960</v>
-      </c>
-      <c r="J74" s="108">
-        <f t="shared" ref="J74:N74" si="46">J70-J72-J73</f>
-        <v>24640</v>
-      </c>
-      <c r="K74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="L74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="M74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="N74" s="108">
-        <f t="shared" si="46"/>
-        <v>24640</v>
-      </c>
-      <c r="O74" s="108">
-        <f>O70+O71-O72-O73</f>
-        <v>36960</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="145"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="202"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="202"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="202"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="145"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="146">
-        <v>1</v>
-      </c>
-      <c r="E79" s="146">
-        <v>2</v>
-      </c>
-      <c r="F79" s="146">
-        <v>3</v>
-      </c>
-      <c r="G79" s="146">
-        <v>4</v>
-      </c>
-      <c r="H79" s="146">
-        <v>5</v>
-      </c>
-      <c r="I79" s="146">
-        <v>6</v>
-      </c>
-      <c r="J79" s="146">
-        <v>7</v>
-      </c>
-      <c r="K79" s="146">
-        <v>8</v>
-      </c>
-      <c r="L79" s="146">
-        <v>9</v>
-      </c>
-      <c r="M79" s="146">
-        <v>10</v>
-      </c>
-      <c r="N79" s="146">
-        <v>11</v>
-      </c>
-      <c r="O79" s="146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="87"/>
-      <c r="B80" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="107">
-        <f>SUM(D80:O81)</f>
-        <v>403000</v>
-      </c>
-      <c r="D80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="E80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="F80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="G80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="H80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="I80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="J80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="K80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="L80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="M80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="N80" s="92">
-        <v>31000</v>
-      </c>
-      <c r="O80" s="92">
-        <v>31000</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="C81" s="92">
+        <f t="shared" ref="C81:H81" si="45">C78*$B$10</f>
+        <v>24960</v>
+      </c>
+      <c r="D81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="E81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="F81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="G81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="H81" s="92">
+        <f t="shared" si="45"/>
+        <v>1920</v>
+      </c>
+      <c r="I81" s="92">
+        <f>(I78+I79)*$B$10</f>
+        <v>2880</v>
+      </c>
+      <c r="J81" s="92">
+        <f>J78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="K81" s="92">
+        <f>K78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="L81" s="92">
+        <f>L78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="M81" s="92">
+        <f>M78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="N81" s="92">
+        <f>N78*$B$10</f>
+        <v>1920</v>
+      </c>
+      <c r="O81" s="92">
+        <f>(O78+O79)*$B$10</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C82" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="108">
+        <f>D78-D80-D81</f>
+        <v>24640</v>
+      </c>
+      <c r="E82" s="108">
+        <f t="shared" ref="E82" si="46">E78-E80-E81</f>
+        <v>24640</v>
+      </c>
+      <c r="F82" s="108">
+        <f t="shared" ref="F82" si="47">F78-F80-F81</f>
+        <v>24640</v>
+      </c>
+      <c r="G82" s="108">
+        <f t="shared" ref="G82" si="48">G78-G80-G81</f>
+        <v>24640</v>
+      </c>
+      <c r="H82" s="108">
+        <f t="shared" ref="H82" si="49">H78-H80-H81</f>
+        <v>24640</v>
+      </c>
+      <c r="I82" s="108">
+        <f>I78+I79-I80-I81</f>
+        <v>36960</v>
+      </c>
+      <c r="J82" s="108">
+        <f t="shared" ref="J82:N82" si="50">J78-J80-J81</f>
+        <v>24640</v>
+      </c>
+      <c r="K82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="L82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="M82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="N82" s="108">
+        <f t="shared" si="50"/>
+        <v>24640</v>
+      </c>
+      <c r="O82" s="108">
+        <f>O78+O79-O80-O81</f>
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="145"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="202"/>
+      <c r="F86" s="202"/>
+      <c r="G86" s="202"/>
+      <c r="H86" s="202"/>
+      <c r="I86" s="202"/>
+      <c r="J86" s="202"/>
+      <c r="K86" s="202"/>
+      <c r="L86" s="202"/>
+      <c r="M86" s="202"/>
+      <c r="N86" s="202"/>
+      <c r="O86" s="202"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="145"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="146">
+        <v>1</v>
+      </c>
+      <c r="E87" s="146">
+        <v>2</v>
+      </c>
+      <c r="F87" s="146">
+        <v>3</v>
+      </c>
+      <c r="G87" s="146">
+        <v>4</v>
+      </c>
+      <c r="H87" s="146">
+        <v>5</v>
+      </c>
+      <c r="I87" s="146">
+        <v>6</v>
+      </c>
+      <c r="J87" s="146">
+        <v>7</v>
+      </c>
+      <c r="K87" s="146">
+        <v>8</v>
+      </c>
+      <c r="L87" s="146">
+        <v>9</v>
+      </c>
+      <c r="M87" s="146">
+        <v>10</v>
+      </c>
+      <c r="N87" s="146">
+        <v>11</v>
+      </c>
+      <c r="O87" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="87"/>
+      <c r="B88" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="107">
+        <f>SUM(D88:O89)</f>
+        <v>403000</v>
+      </c>
+      <c r="D88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="E88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="F88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="G88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="H88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="I88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="J88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="K88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="L88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="M88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="N88" s="92">
+        <v>31000</v>
+      </c>
+      <c r="O88" s="92">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="92">
+        <f>I88/2</f>
+        <v>15500</v>
+      </c>
+      <c r="J89" s="87"/>
+      <c r="K89" s="87"/>
+      <c r="L89" s="87"/>
+      <c r="M89" s="87"/>
+      <c r="N89" s="87"/>
+      <c r="O89" s="92">
+        <f>O88/2</f>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="92">
-        <f>I80/2</f>
-        <v>15500</v>
-      </c>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="92">
-        <f>O80/2</f>
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="87" t="s">
+      <c r="B90" s="104">
+        <v>0.17</v>
+      </c>
+      <c r="C90" s="92">
+        <f t="shared" ref="C90:H90" si="51">C88*$B$9</f>
+        <v>68510</v>
+      </c>
+      <c r="D90" s="92">
+        <f t="shared" si="51"/>
+        <v>5270</v>
+      </c>
+      <c r="E90" s="92">
+        <f t="shared" si="51"/>
+        <v>5270</v>
+      </c>
+      <c r="F90" s="92">
+        <f t="shared" si="51"/>
+        <v>5270</v>
+      </c>
+      <c r="G90" s="92">
+        <f t="shared" si="51"/>
+        <v>5270</v>
+      </c>
+      <c r="H90" s="92">
+        <f t="shared" si="51"/>
+        <v>5270</v>
+      </c>
+      <c r="I90" s="92">
+        <f>(I88+I89)*$B$9</f>
+        <v>7905.0000000000009</v>
+      </c>
+      <c r="J90" s="92">
+        <f>J88*$B$9</f>
+        <v>5270</v>
+      </c>
+      <c r="K90" s="92">
+        <f>K88*$B$9</f>
+        <v>5270</v>
+      </c>
+      <c r="L90" s="92">
+        <f>L88*$B$9</f>
+        <v>5270</v>
+      </c>
+      <c r="M90" s="92">
+        <f>M88*$B$9</f>
+        <v>5270</v>
+      </c>
+      <c r="N90" s="92">
+        <f>N88*$B$9</f>
+        <v>5270</v>
+      </c>
+      <c r="O90" s="92">
+        <f>(O88+O89)*$B$9</f>
+        <v>7905.0000000000009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="104">
-        <v>0.17</v>
-      </c>
-      <c r="C82" s="92">
-        <f t="shared" ref="C82:H82" si="47">C80*$B$9</f>
-        <v>68510</v>
-      </c>
-      <c r="D82" s="92">
-        <f t="shared" si="47"/>
-        <v>5270</v>
-      </c>
-      <c r="E82" s="92">
-        <f t="shared" si="47"/>
-        <v>5270</v>
-      </c>
-      <c r="F82" s="92">
-        <f t="shared" si="47"/>
-        <v>5270</v>
-      </c>
-      <c r="G82" s="92">
-        <f t="shared" si="47"/>
-        <v>5270</v>
-      </c>
-      <c r="H82" s="92">
-        <f t="shared" si="47"/>
-        <v>5270</v>
-      </c>
-      <c r="I82" s="92">
-        <f>(I80+I81)*$B$9</f>
-        <v>7905.0000000000009</v>
-      </c>
-      <c r="J82" s="92">
-        <f>J80*$B$9</f>
-        <v>5270</v>
-      </c>
-      <c r="K82" s="92">
-        <f>K80*$B$9</f>
-        <v>5270</v>
-      </c>
-      <c r="L82" s="92">
-        <f>L80*$B$9</f>
-        <v>5270</v>
-      </c>
-      <c r="M82" s="92">
-        <f>M80*$B$9</f>
-        <v>5270</v>
-      </c>
-      <c r="N82" s="92">
-        <f>N80*$B$9</f>
-        <v>5270</v>
-      </c>
-      <c r="O82" s="92">
-        <f>(O80+O81)*$B$9</f>
-        <v>7905.0000000000009</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="104">
+      <c r="B91" s="104">
         <v>0.06</v>
       </c>
-      <c r="C83" s="92">
-        <f t="shared" ref="C83:H83" si="48">C80*$B$10</f>
+      <c r="C91" s="92">
+        <f t="shared" ref="C91:H91" si="52">C88*$B$10</f>
         <v>24180</v>
       </c>
-      <c r="D83" s="92">
-        <f t="shared" si="48"/>
+      <c r="D91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="E83" s="92">
-        <f t="shared" si="48"/>
+      <c r="E91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="F83" s="92">
-        <f t="shared" si="48"/>
+      <c r="F91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="G83" s="92">
-        <f t="shared" si="48"/>
+      <c r="G91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="H83" s="92">
-        <f t="shared" si="48"/>
+      <c r="H91" s="92">
+        <f t="shared" si="52"/>
         <v>1860</v>
       </c>
-      <c r="I83" s="92">
-        <f>(I80+I81)*$B$10</f>
+      <c r="I91" s="92">
+        <f>(I88+I89)*$B$10</f>
         <v>2790</v>
       </c>
-      <c r="J83" s="92">
-        <f>J80*$B$10</f>
+      <c r="J91" s="92">
+        <f>J88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="K83" s="92">
-        <f>K80*$B$10</f>
+      <c r="K91" s="92">
+        <f>K88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="L83" s="92">
-        <f>L80*$B$10</f>
+      <c r="L91" s="92">
+        <f>L88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="M83" s="92">
-        <f>M80*$B$10</f>
+      <c r="M91" s="92">
+        <f>M88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="N83" s="92">
-        <f>N80*$B$10</f>
+      <c r="N91" s="92">
+        <f>N88*$B$10</f>
         <v>1860</v>
       </c>
-      <c r="O83" s="92">
-        <f>(O80+O81)*$B$10</f>
+      <c r="O91" s="92">
+        <f>(O88+O89)*$B$10</f>
         <v>2790</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C84" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D84" s="108">
-        <f>D80-D82-D83</f>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C92" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="108">
+        <f>D88-D90-D91</f>
         <v>23870</v>
       </c>
-      <c r="E84" s="108">
-        <f t="shared" ref="E84" si="49">E80-E82-E83</f>
+      <c r="E92" s="108">
+        <f t="shared" ref="E92" si="53">E88-E90-E91</f>
         <v>23870</v>
       </c>
-      <c r="F84" s="108">
-        <f t="shared" ref="F84" si="50">F80-F82-F83</f>
+      <c r="F92" s="108">
+        <f t="shared" ref="F92" si="54">F88-F90-F91</f>
         <v>23870</v>
       </c>
-      <c r="G84" s="108">
-        <f t="shared" ref="G84" si="51">G80-G82-G83</f>
+      <c r="G92" s="108">
+        <f t="shared" ref="G92" si="55">G88-G90-G91</f>
         <v>23870</v>
       </c>
-      <c r="H84" s="108">
-        <f t="shared" ref="H84" si="52">H80-H82-H83</f>
+      <c r="H92" s="108">
+        <f t="shared" ref="H92" si="56">H88-H90-H91</f>
         <v>23870</v>
       </c>
-      <c r="I84" s="108">
-        <f>I80+I81-I82-I83</f>
+      <c r="I92" s="108">
+        <f>I88+I89-I90-I91</f>
         <v>35805</v>
       </c>
-      <c r="J84" s="108">
-        <f t="shared" ref="J84:N84" si="53">J80-J82-J83</f>
+      <c r="J92" s="108">
+        <f t="shared" ref="J92:N92" si="57">J88-J90-J91</f>
         <v>23870</v>
       </c>
-      <c r="K84" s="108">
-        <f t="shared" si="53"/>
+      <c r="K92" s="108">
+        <f t="shared" si="57"/>
         <v>23870</v>
       </c>
-      <c r="L84" s="108">
-        <f t="shared" si="53"/>
+      <c r="L92" s="108">
+        <f t="shared" si="57"/>
         <v>23870</v>
       </c>
-      <c r="M84" s="108">
-        <f t="shared" si="53"/>
+      <c r="M92" s="108">
+        <f t="shared" si="57"/>
         <v>23870</v>
       </c>
-      <c r="N84" s="108">
-        <f t="shared" si="53"/>
+      <c r="N92" s="108">
+        <f t="shared" si="57"/>
         <v>23870</v>
       </c>
-      <c r="O84" s="108">
-        <f>O80+O81-O82-O83</f>
+      <c r="O92" s="108">
+        <f>O88+O89-O90-O91</f>
         <v>35805</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C90" s="146"/>
-      <c r="D90" s="159" t="s">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="146"/>
+      <c r="D98" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="159" t="s">
+      <c r="E98" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="159" t="s">
+      <c r="F98" s="159" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C91" s="203" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="92">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="203" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="92">
         <f>+C26+C17+C7</f>
         <v>1560000</v>
       </c>
-      <c r="E91" s="92">
-        <f>+D91+C38+C48+C58</f>
+      <c r="E99" s="92">
+        <f>+D99+C46+C56+C66</f>
         <v>2691000</v>
       </c>
-      <c r="F91" s="92">
-        <f>+E91+C70+C80</f>
+      <c r="F99" s="92">
+        <f>+E99+C78+C88</f>
         <v>3510000</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C92" s="204"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C93" s="204"/>
-      <c r="D93" s="87" t="s">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="204"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="87"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="204"/>
+      <c r="D101" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="87" t="s">
+      <c r="E101" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="87" t="s">
+      <c r="F101" s="87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C94" s="205"/>
-      <c r="D94" s="92">
-        <f>D91/12</f>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="205"/>
+      <c r="D102" s="92">
+        <f>D99/12</f>
         <v>130000</v>
       </c>
-      <c r="E94" s="92">
-        <f>E91/12</f>
+      <c r="E102" s="92">
+        <f>E99/12</f>
         <v>224250</v>
       </c>
-      <c r="F94" s="92">
-        <f>F91/12</f>
+      <c r="F102" s="92">
+        <f>F99/12</f>
         <v>292500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D68:O68"/>
-    <mergeCell ref="D78:O78"/>
-    <mergeCell ref="C91:C94"/>
+  <mergeCells count="10">
+    <mergeCell ref="D76:O76"/>
+    <mergeCell ref="D86:O86"/>
+    <mergeCell ref="C99:C102"/>
     <mergeCell ref="D5:O5"/>
     <mergeCell ref="D15:O15"/>
     <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="D56:O56"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D54:O54"/>
+    <mergeCell ref="D64:O64"/>
+    <mergeCell ref="D33:O33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Gomez Marcos - Escenario de Perdida.xlsx
+++ b/Gomez Marcos - Escenario de Perdida.xlsx
@@ -1705,6 +1705,9 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,9 +1817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,8 +2079,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="92282368"/>
-        <c:axId val="138199040"/>
+        <c:axId val="132357120"/>
+        <c:axId val="107144320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2225,13 +2225,13 @@
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1200000</c:v>
+                  <c:v>1800000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2400000</c:v>
+                  <c:v>3600000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4716000</c:v>
+                  <c:v>7074000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,11 +2253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102219776"/>
-        <c:axId val="138199616"/>
+        <c:axId val="132558848"/>
+        <c:axId val="107144896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92282368"/>
+        <c:axId val="132357120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,7 +2300,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138199040"/>
+        <c:crossAx val="107144320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2308,7 +2308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138199040"/>
+        <c:axId val="107144320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,12 +2359,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92282368"/>
+        <c:crossAx val="132357120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138199616"/>
+        <c:axId val="107144896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,12 +2401,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102219776"/>
+        <c:crossAx val="132558848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102219776"/>
+        <c:axId val="132558848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138199616"/>
+        <c:crossAx val="107144896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2508,6 +2508,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2741,40 +2742,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,11 +2797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104572928"/>
-        <c:axId val="138201920"/>
+        <c:axId val="132560896"/>
+        <c:axId val="107147200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104572928"/>
+        <c:axId val="132560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2860,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138201920"/>
+        <c:crossAx val="107147200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2867,7 +2868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138201920"/>
+        <c:axId val="107147200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +2927,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104572928"/>
+        <c:crossAx val="132560896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,6 +2941,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3042,6 +3044,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3319,40 +3322,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,11 +3377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104573952"/>
-        <c:axId val="138204224"/>
+        <c:axId val="121112576"/>
+        <c:axId val="107149504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104573952"/>
+        <c:axId val="121112576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3440,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138204224"/>
+        <c:crossAx val="107149504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3445,7 +3448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138204224"/>
+        <c:axId val="107149504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,7 +3507,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104573952"/>
+        <c:crossAx val="121112576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3518,6 +3521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3620,6 +3624,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3897,40 +3902,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,11 +3957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110153216"/>
-        <c:axId val="138206528"/>
+        <c:axId val="132243456"/>
+        <c:axId val="133505600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110153216"/>
+        <c:axId val="132243456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4020,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138206528"/>
+        <c:crossAx val="133505600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4023,7 +4028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138206528"/>
+        <c:axId val="133505600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4087,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110153216"/>
+        <c:crossAx val="132243456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,6 +4101,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4751,64 +4757,64 @@
                 <c:formatCode>[$$-2C0A]\ #,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36000</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84000</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96000</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108000</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>132000</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144000</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156000</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168000</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192000</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>204000</c:v>
+                  <c:v>306000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>216000</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>228000</c:v>
+                  <c:v>342000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>240000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,11 +4836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102220800"/>
-        <c:axId val="140003008"/>
+        <c:axId val="132243968"/>
+        <c:axId val="133507904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102220800"/>
+        <c:axId val="132243968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,7 +4904,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140003008"/>
+        <c:crossAx val="133507904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4906,7 +4912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140003008"/>
+        <c:axId val="133507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,7 +4971,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102220800"/>
+        <c:crossAx val="132243968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8757,7 +8763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8768,7 +8774,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8814,15 +8820,15 @@
       </c>
       <c r="B6" s="75">
         <f>E16*B5</f>
-        <v>1200000</v>
+        <v>1800000</v>
       </c>
       <c r="C6" s="75">
         <f>E16*C5</f>
-        <v>2400000</v>
+        <v>3600000</v>
       </c>
       <c r="D6" s="75">
         <f>E16*D5</f>
-        <v>4716000</v>
+        <v>7074000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -8848,7 +8854,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -8878,16 +8884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172"/>
-      <c r="E1" s="170" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="173"/>
+      <c r="E1" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9005,7 +9011,7 @@
       <c r="G6" s="9">
         <v>18000</v>
       </c>
-      <c r="H6" s="207">
+      <c r="H6" s="170">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="I6" s="30"/>
@@ -9085,16 +9091,16 @@
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="172"/>
-      <c r="E13" s="170" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="173"/>
+      <c r="E13" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="171"/>
-      <c r="G13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
       <c r="H13" s="49" t="s">
         <v>145</v>
       </c>
@@ -9284,16 +9290,16 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="E25" s="170" t="s">
+      <c r="B25" s="172"/>
+      <c r="C25" s="173"/>
+      <c r="E25" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="171"/>
-      <c r="G25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
       <c r="H25" s="49" t="s">
         <v>146</v>
       </c>
@@ -9499,8 +9505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9520,18 +9526,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="173" t="s">
+      <c r="D1" s="175"/>
+      <c r="E1" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="173" t="s">
+      <c r="F1" s="175"/>
+      <c r="G1" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="174"/>
+      <c r="H1" s="175"/>
       <c r="I1" s="78"/>
       <c r="K1" s="137" t="s">
         <v>19</v>
@@ -9589,7 +9595,7 @@
       </c>
       <c r="D3" s="85">
         <f>C3*$L$11</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="E3" s="84">
         <f>E2</f>
@@ -9597,7 +9603,7 @@
       </c>
       <c r="F3" s="85">
         <f>E3*$L$11</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G3" s="84">
         <f>G2</f>
@@ -9605,7 +9611,7 @@
       </c>
       <c r="H3" s="85">
         <f>G3*$L$11</f>
-        <v>393000</v>
+        <v>589500</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="140" t="s">
@@ -9650,17 +9656,17 @@
       <c r="C5" s="94"/>
       <c r="D5" s="95">
         <f>D3+D4</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="E5" s="93"/>
       <c r="F5" s="95">
         <f>F3+F4</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G5" s="93"/>
       <c r="H5" s="95">
         <f>H3+H4</f>
-        <v>393000</v>
+        <v>589500</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="97"/>
@@ -9670,18 +9676,18 @@
     </row>
     <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="175" t="s">
+      <c r="D7" s="177"/>
+      <c r="E7" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="176"/>
-      <c r="G7" s="175" t="s">
+      <c r="F7" s="177"/>
+      <c r="G7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="176"/>
+      <c r="H7" s="177"/>
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -9775,7 +9781,7 @@
         <v>173</v>
       </c>
       <c r="L11" s="15">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -9955,89 +9961,101 @@
       </c>
       <c r="C22" s="101">
         <f t="shared" ref="C22:N22" si="1">IFERROR(C21*$L$11,0)</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="D22" s="101">
         <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="E22" s="101">
         <f t="shared" si="1"/>
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="F22" s="101">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="G22" s="101">
         <f t="shared" si="1"/>
-        <v>96000</v>
+        <v>144000</v>
       </c>
       <c r="H22" s="101">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>216000</v>
       </c>
       <c r="I22" s="101">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="J22" s="101">
         <f t="shared" si="1"/>
-        <v>168000.00000000003</v>
+        <v>252000.00000000003</v>
       </c>
       <c r="K22" s="101">
         <f t="shared" si="1"/>
-        <v>156000</v>
+        <v>234000</v>
       </c>
       <c r="L22" s="101">
         <f t="shared" si="1"/>
-        <v>192000</v>
+        <v>288000</v>
       </c>
       <c r="M22" s="101">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="N22" s="101">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="76">
-        <v>15</v>
+        <f>N21/12</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C23" s="76">
-        <v>15</v>
+        <f>B23</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D23" s="76">
-        <v>15</v>
+        <f t="shared" ref="D23:M23" si="2">C23</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="E23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="I23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="J23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="K23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="L23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="M23" s="76">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -10153,47 +10171,47 @@
         <v>16</v>
       </c>
       <c r="C32" s="105">
-        <f t="shared" ref="C32:M32" si="2">$B$28*C30</f>
+        <f t="shared" ref="C32:M32" si="3">$B$28*C30</f>
         <v>18</v>
       </c>
       <c r="D32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.000000000000002</v>
       </c>
       <c r="F32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.000000000000002</v>
       </c>
       <c r="H32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="J32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="K32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="N32" s="105">
@@ -10206,94 +10224,106 @@
         <v>79</v>
       </c>
       <c r="B33" s="101">
-        <f t="shared" ref="B33:C33" si="3">IFERROR(B32*$L$11,0)</f>
-        <v>192000</v>
+        <f t="shared" ref="B33:C33" si="4">IFERROR(B32*$L$11,0)</f>
+        <v>288000</v>
       </c>
       <c r="C33" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>324000</v>
+      </c>
+      <c r="D33" s="101">
+        <f t="shared" ref="D33" si="5">IFERROR(D32*$L$11,0)</f>
         <v>216000</v>
       </c>
-      <c r="D33" s="101">
-        <f t="shared" ref="D33" si="4">IFERROR(D32*$L$11,0)</f>
-        <v>144000</v>
-      </c>
       <c r="E33" s="101">
-        <f t="shared" ref="E33" si="5">IFERROR(E32*$L$11,0)</f>
-        <v>168000.00000000003</v>
+        <f t="shared" ref="E33" si="6">IFERROR(E32*$L$11,0)</f>
+        <v>252000.00000000003</v>
       </c>
       <c r="F33" s="101">
-        <f t="shared" ref="F33" si="6">IFERROR(F32*$L$11,0)</f>
-        <v>144000</v>
+        <f t="shared" ref="F33" si="7">IFERROR(F32*$L$11,0)</f>
+        <v>216000</v>
       </c>
       <c r="G33" s="101">
-        <f t="shared" ref="G33" si="7">IFERROR(G32*$L$11,0)</f>
-        <v>168000.00000000003</v>
+        <f t="shared" ref="G33" si="8">IFERROR(G32*$L$11,0)</f>
+        <v>252000.00000000003</v>
       </c>
       <c r="H33" s="101">
-        <f t="shared" ref="H33" si="8">IFERROR(H32*$L$11,0)</f>
-        <v>144000</v>
+        <f t="shared" ref="H33" si="9">IFERROR(H32*$L$11,0)</f>
+        <v>216000</v>
       </c>
       <c r="I33" s="101">
-        <f t="shared" ref="I33" si="9">IFERROR(I32*$L$11,0)</f>
-        <v>216000</v>
+        <f t="shared" ref="I33" si="10">IFERROR(I32*$L$11,0)</f>
+        <v>324000</v>
       </c>
       <c r="J33" s="101">
-        <f t="shared" ref="J33" si="10">IFERROR(J32*$L$11,0)</f>
-        <v>192000</v>
+        <f t="shared" ref="J33" si="11">IFERROR(J32*$L$11,0)</f>
+        <v>288000</v>
       </c>
       <c r="K33" s="101">
-        <f t="shared" ref="K33" si="11">IFERROR(K32*$L$11,0)</f>
-        <v>240000</v>
+        <f t="shared" ref="K33" si="12">IFERROR(K32*$L$11,0)</f>
+        <v>360000</v>
       </c>
       <c r="L33" s="101">
-        <f t="shared" ref="L33" si="12">IFERROR(L32*$L$11,0)</f>
-        <v>288000</v>
+        <f t="shared" ref="L33" si="13">IFERROR(L32*$L$11,0)</f>
+        <v>432000</v>
       </c>
       <c r="M33" s="101">
-        <f t="shared" ref="M33" si="13">IFERROR(M32*$L$11,0)</f>
-        <v>288000</v>
+        <f t="shared" ref="M33" si="14">IFERROR(M32*$L$11,0)</f>
+        <v>432000</v>
       </c>
       <c r="N33" s="101">
-        <f t="shared" ref="N33" si="14">IFERROR(N32*$L$11,0)</f>
-        <v>2400000</v>
+        <f t="shared" ref="N33" si="15">IFERROR(N32*$L$11,0)</f>
+        <v>3600000</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="76">
-        <v>15</v>
+        <f>N32/12</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="C34" s="76">
-        <v>15</v>
+        <f>B34</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="D34" s="76">
-        <v>15</v>
+        <f t="shared" ref="D34:M34" si="16">C34</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="E34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="F34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="G34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="H34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="I34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="J34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="K34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="L34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="M34" s="76">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -10409,47 +10439,47 @@
         <v>31.44</v>
       </c>
       <c r="C44" s="105">
-        <f t="shared" ref="C44:M44" si="15">$B$40*C42</f>
+        <f t="shared" ref="C44:M44" si="17">$B$40*C42</f>
         <v>27.51</v>
       </c>
       <c r="D44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.58</v>
       </c>
       <c r="E44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35.369999999999997</v>
       </c>
       <c r="F44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.44</v>
       </c>
       <c r="G44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29.474999999999998</v>
       </c>
       <c r="H44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27.51</v>
       </c>
       <c r="I44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.44</v>
       </c>
       <c r="J44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.44</v>
       </c>
       <c r="K44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35.369999999999997</v>
       </c>
       <c r="L44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43.23</v>
       </c>
       <c r="M44" s="105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45.195</v>
       </c>
       <c r="N44" s="105">
@@ -10462,94 +10492,106 @@
         <v>79</v>
       </c>
       <c r="B45" s="101">
-        <f t="shared" ref="B45:N45" si="16">IFERROR(B44*$L$11,0)</f>
-        <v>377280</v>
+        <f t="shared" ref="B45:N45" si="18">IFERROR(B44*$L$11,0)</f>
+        <v>565920</v>
       </c>
       <c r="C45" s="101">
-        <f t="shared" si="16"/>
-        <v>330120</v>
+        <f t="shared" si="18"/>
+        <v>495180</v>
       </c>
       <c r="D45" s="101">
-        <f t="shared" si="16"/>
-        <v>282960</v>
+        <f t="shared" si="18"/>
+        <v>424439.99999999994</v>
       </c>
       <c r="E45" s="101">
-        <f t="shared" si="16"/>
-        <v>424439.99999999994</v>
+        <f t="shared" si="18"/>
+        <v>636660</v>
       </c>
       <c r="F45" s="101">
-        <f t="shared" si="16"/>
-        <v>377280</v>
+        <f t="shared" si="18"/>
+        <v>565920</v>
       </c>
       <c r="G45" s="101">
-        <f t="shared" si="16"/>
-        <v>353700</v>
+        <f t="shared" si="18"/>
+        <v>530550</v>
       </c>
       <c r="H45" s="101">
-        <f t="shared" si="16"/>
-        <v>330120</v>
+        <f t="shared" si="18"/>
+        <v>495180</v>
       </c>
       <c r="I45" s="101">
-        <f t="shared" si="16"/>
-        <v>377280</v>
+        <f t="shared" si="18"/>
+        <v>565920</v>
       </c>
       <c r="J45" s="101">
-        <f t="shared" si="16"/>
-        <v>377280</v>
+        <f t="shared" si="18"/>
+        <v>565920</v>
       </c>
       <c r="K45" s="101">
-        <f t="shared" si="16"/>
-        <v>424439.99999999994</v>
+        <f t="shared" si="18"/>
+        <v>636660</v>
       </c>
       <c r="L45" s="101">
-        <f t="shared" si="16"/>
-        <v>518759.99999999994</v>
+        <f t="shared" si="18"/>
+        <v>778140</v>
       </c>
       <c r="M45" s="101">
-        <f t="shared" si="16"/>
-        <v>542340</v>
+        <f t="shared" si="18"/>
+        <v>813510</v>
       </c>
       <c r="N45" s="101">
-        <f t="shared" si="16"/>
-        <v>4716000</v>
+        <f t="shared" si="18"/>
+        <v>7074000</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="76">
-        <v>15</v>
+        <f>N44/12</f>
+        <v>32.75</v>
       </c>
       <c r="C46" s="76">
-        <v>15</v>
+        <f>B46</f>
+        <v>32.75</v>
       </c>
       <c r="D46" s="76">
-        <v>15</v>
+        <f t="shared" ref="D46:M46" si="19">C46</f>
+        <v>32.75</v>
       </c>
       <c r="E46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="F46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="G46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="H46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="I46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="J46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="K46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="L46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
       <c r="M46" s="76">
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>32.75</v>
       </c>
     </row>
   </sheetData>
@@ -10572,7 +10614,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10592,7 +10634,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="184" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -10606,7 +10648,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="184"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="123" t="s">
         <v>10</v>
       </c>
@@ -10619,7 +10661,7 @@
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="184"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="123" t="s">
         <v>13</v>
       </c>
@@ -10632,7 +10674,7 @@
       <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="184"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="123" t="s">
         <v>11</v>
       </c>
@@ -10644,7 +10686,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="184"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="123" t="s">
         <v>5</v>
       </c>
@@ -10658,7 +10700,7 @@
       <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="184"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="123" t="s">
         <v>6</v>
       </c>
@@ -10672,11 +10714,11 @@
         <v>174</v>
       </c>
       <c r="H8" s="37">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="184"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="123" t="s">
         <v>7</v>
       </c>
@@ -10688,7 +10730,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="185"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="126" t="s">
         <v>8</v>
       </c>
@@ -10700,7 +10742,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="184" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="123" t="s">
@@ -10714,7 +10756,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="184"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="123" t="s">
         <v>15</v>
       </c>
@@ -10726,7 +10768,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="185"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="129" t="s">
         <v>16</v>
       </c>
@@ -10738,10 +10780,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="186" t="s">
+      <c r="C14" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="187"/>
+      <c r="D14" s="188"/>
       <c r="E14" s="132">
         <f>SUM(E4:E13)</f>
         <v>159000</v>
@@ -10785,7 +10827,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="181" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="114">
@@ -10804,11 +10846,11 @@
       </c>
       <c r="F19" s="116">
         <f t="shared" ref="F19:F38" si="0">B19*$H$8</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="114">
         <v>2</v>
       </c>
@@ -10826,11 +10868,11 @@
       </c>
       <c r="F20" s="116">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="114">
         <v>3</v>
       </c>
@@ -10848,11 +10890,11 @@
       </c>
       <c r="F21" s="116">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="114">
         <v>4</v>
       </c>
@@ -10870,11 +10912,11 @@
       </c>
       <c r="F22" s="116">
         <f t="shared" si="0"/>
-        <v>48000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="114">
         <v>5</v>
       </c>
@@ -10892,11 +10934,11 @@
       </c>
       <c r="F23" s="116">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="114">
         <v>6</v>
       </c>
@@ -10914,11 +10956,11 @@
       </c>
       <c r="F24" s="116">
         <f t="shared" si="0"/>
-        <v>72000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="114">
         <v>7</v>
       </c>
@@ -10936,11 +10978,11 @@
       </c>
       <c r="F25" s="116">
         <f t="shared" si="0"/>
-        <v>84000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="114">
         <v>8</v>
       </c>
@@ -10958,11 +11000,11 @@
       </c>
       <c r="F26" s="116">
         <f t="shared" si="0"/>
-        <v>96000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="114">
         <v>9</v>
       </c>
@@ -10980,11 +11022,11 @@
       </c>
       <c r="F27" s="116">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="114">
         <v>10</v>
       </c>
@@ -11002,11 +11044,11 @@
       </c>
       <c r="F28" s="116">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="114">
         <v>11</v>
       </c>
@@ -11024,11 +11066,11 @@
       </c>
       <c r="F29" s="116">
         <f t="shared" si="0"/>
-        <v>132000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="117">
         <v>12</v>
       </c>
@@ -11046,11 +11088,11 @@
       </c>
       <c r="F30" s="119">
         <f t="shared" si="0"/>
-        <v>144000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="114">
         <v>13</v>
       </c>
@@ -11068,11 +11110,11 @@
       </c>
       <c r="F31" s="116">
         <f t="shared" si="0"/>
-        <v>156000</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="114">
         <v>14</v>
       </c>
@@ -11090,7 +11132,7 @@
       </c>
       <c r="F32" s="116">
         <f t="shared" si="0"/>
-        <v>168000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11114,11 +11156,11 @@
       </c>
       <c r="F33" s="112">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="178" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="120">
@@ -11138,11 +11180,11 @@
       </c>
       <c r="F34" s="122">
         <f t="shared" si="0"/>
-        <v>192000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="178"/>
+      <c r="A35" s="179"/>
       <c r="B35" s="120">
         <v>17</v>
       </c>
@@ -11160,11 +11202,11 @@
       </c>
       <c r="F35" s="122">
         <f t="shared" si="0"/>
-        <v>204000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="178"/>
+      <c r="A36" s="179"/>
       <c r="B36" s="120">
         <v>18</v>
       </c>
@@ -11182,11 +11224,11 @@
       </c>
       <c r="F36" s="122">
         <f t="shared" si="0"/>
-        <v>216000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="178"/>
+      <c r="A37" s="179"/>
       <c r="B37" s="120">
         <v>19</v>
       </c>
@@ -11204,11 +11246,11 @@
       </c>
       <c r="F37" s="122">
         <f t="shared" si="0"/>
-        <v>228000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
+      <c r="A38" s="180"/>
       <c r="B38" s="120">
         <v>20</v>
       </c>
@@ -11226,7 +11268,7 @@
       </c>
       <c r="F38" s="122">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>360000</v>
       </c>
     </row>
   </sheetData>
@@ -11248,7 +11290,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11729,19 +11771,19 @@
       <c r="G4" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="189" t="s">
+      <c r="H4" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="194"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
       <c r="F5" s="147" t="s">
         <v>141</v>
       </c>
@@ -11894,18 +11936,18 @@
       <c r="A10" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
       <c r="F10" s="149" t="s">
         <v>142</v>
       </c>
       <c r="G10" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="198"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -11977,18 +12019,18 @@
       <c r="A13" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
       <c r="F13" s="149" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="198"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -12093,18 +12135,18 @@
       <c r="A17" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="198"/>
       <c r="F17" s="149" t="s">
         <v>143</v>
       </c>
       <c r="G17" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="198"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -12141,11 +12183,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="188" t="s">
+      <c r="A19" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="43">
         <f>SUM(D6:D18)</f>
         <v>578134</v>
@@ -12484,13 +12526,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
       <c r="F15" s="151">
         <f>SUM(F4:F14)</f>
         <v>209475</v>
@@ -12564,20 +12606,20 @@
       </c>
       <c r="B5" s="145"/>
       <c r="C5" s="145"/>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="76" t="s">
@@ -12870,20 +12912,20 @@
       </c>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="202" t="s">
+      <c r="D15" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="145"/>
@@ -13178,20 +13220,20 @@
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
-      <c r="D24" s="202" t="s">
+      <c r="D24" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="203"/>
+      <c r="O24" s="203"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="145"/>
@@ -13845,20 +13887,20 @@
       </c>
       <c r="B44" s="160"/>
       <c r="C44" s="145"/>
-      <c r="D44" s="202" t="s">
+      <c r="D44" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="202"/>
-      <c r="F44" s="202"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="202"/>
-      <c r="J44" s="202"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="202"/>
-      <c r="N44" s="202"/>
-      <c r="O44" s="202"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="203"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="203"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="203"/>
+      <c r="K44" s="203"/>
+      <c r="L44" s="203"/>
+      <c r="M44" s="203"/>
+      <c r="N44" s="203"/>
+      <c r="O44" s="203"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C45" s="76" t="s">
@@ -14151,20 +14193,20 @@
       </c>
       <c r="B54" s="145"/>
       <c r="C54" s="145"/>
-      <c r="D54" s="202" t="s">
+      <c r="D54" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="202"/>
-      <c r="F54" s="202"/>
-      <c r="G54" s="202"/>
-      <c r="H54" s="202"/>
-      <c r="I54" s="202"/>
-      <c r="J54" s="202"/>
-      <c r="K54" s="202"/>
-      <c r="L54" s="202"/>
-      <c r="M54" s="202"/>
-      <c r="N54" s="202"/>
-      <c r="O54" s="202"/>
+      <c r="E54" s="203"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="203"/>
+      <c r="H54" s="203"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="203"/>
+      <c r="K54" s="203"/>
+      <c r="L54" s="203"/>
+      <c r="M54" s="203"/>
+      <c r="N54" s="203"/>
+      <c r="O54" s="203"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="145"/>
@@ -14457,20 +14499,20 @@
       <c r="A64" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="206" t="s">
+      <c r="D64" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="206"/>
-      <c r="F64" s="206"/>
-      <c r="G64" s="206"/>
-      <c r="H64" s="206"/>
-      <c r="I64" s="206"/>
-      <c r="J64" s="206"/>
-      <c r="K64" s="206"/>
-      <c r="L64" s="206"/>
-      <c r="M64" s="206"/>
-      <c r="N64" s="206"/>
-      <c r="O64" s="206"/>
+      <c r="E64" s="207"/>
+      <c r="F64" s="207"/>
+      <c r="G64" s="207"/>
+      <c r="H64" s="207"/>
+      <c r="I64" s="207"/>
+      <c r="J64" s="207"/>
+      <c r="K64" s="207"/>
+      <c r="L64" s="207"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="207"/>
+      <c r="O64" s="207"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C65" s="76" t="s">
@@ -14782,20 +14824,20 @@
       </c>
       <c r="B76" s="145"/>
       <c r="C76" s="145"/>
-      <c r="D76" s="202" t="s">
+      <c r="D76" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="202"/>
-      <c r="H76" s="202"/>
-      <c r="I76" s="202"/>
-      <c r="J76" s="202"/>
-      <c r="K76" s="202"/>
-      <c r="L76" s="202"/>
-      <c r="M76" s="202"/>
-      <c r="N76" s="202"/>
-      <c r="O76" s="202"/>
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
+      <c r="G76" s="203"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="203"/>
+      <c r="J76" s="203"/>
+      <c r="K76" s="203"/>
+      <c r="L76" s="203"/>
+      <c r="M76" s="203"/>
+      <c r="N76" s="203"/>
+      <c r="O76" s="203"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="145"/>
@@ -15090,20 +15132,20 @@
       </c>
       <c r="B86" s="145"/>
       <c r="C86" s="145"/>
-      <c r="D86" s="202" t="s">
+      <c r="D86" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="E86" s="202"/>
-      <c r="F86" s="202"/>
-      <c r="G86" s="202"/>
-      <c r="H86" s="202"/>
-      <c r="I86" s="202"/>
-      <c r="J86" s="202"/>
-      <c r="K86" s="202"/>
-      <c r="L86" s="202"/>
-      <c r="M86" s="202"/>
-      <c r="N86" s="202"/>
-      <c r="O86" s="202"/>
+      <c r="E86" s="203"/>
+      <c r="F86" s="203"/>
+      <c r="G86" s="203"/>
+      <c r="H86" s="203"/>
+      <c r="I86" s="203"/>
+      <c r="J86" s="203"/>
+      <c r="K86" s="203"/>
+      <c r="L86" s="203"/>
+      <c r="M86" s="203"/>
+      <c r="N86" s="203"/>
+      <c r="O86" s="203"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="145"/>
@@ -15405,7 +15447,7 @@
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C99" s="203" t="s">
+      <c r="C99" s="204" t="s">
         <v>156</v>
       </c>
       <c r="D99" s="92">
@@ -15422,13 +15464,13 @@
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C100" s="204"/>
+      <c r="C100" s="205"/>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
       <c r="F100" s="87"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C101" s="204"/>
+      <c r="C101" s="205"/>
       <c r="D101" s="87" t="s">
         <v>4</v>
       </c>
@@ -15440,7 +15482,7 @@
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="205"/>
+      <c r="C102" s="206"/>
       <c r="D102" s="92">
         <f>D99/12</f>
         <v>130000</v>
